--- a/src/utils/data/sql_examples_data.xlsx
+++ b/src/utils/data/sql_examples_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\open_ai_assistant_v2\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F39A4A-1DED-4C68-A6DF-B96386433501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104A2E38-9DAA-4D54-9FCA-E7800923531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="321">
   <si>
     <t>tables</t>
   </si>
@@ -1470,6 +1470,12 @@
   </si>
   <si>
     <t>Platforms/installations</t>
+  </si>
+  <si>
+    <t>asdsadsa</t>
+  </si>
+  <si>
+    <t>asdadasdsad</t>
   </si>
 </sst>
 </file>
@@ -2728,8 +2734,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2911,6 +2917,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>319</v>
+      </c>
       <c r="C13" s="28" t="s">
         <v>25</v>
       </c>
@@ -2919,6 +2931,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>320</v>
+      </c>
       <c r="C14" s="28" t="s">
         <v>25</v>
       </c>
@@ -3242,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/data/sql_examples_data.xlsx
+++ b/src/utils/data/sql_examples_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104A2E38-9DAA-4D54-9FCA-E7800923531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0441E5-7ED2-4A5A-9A21-DD886378CC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="323">
   <si>
     <t>tables</t>
   </si>
@@ -1476,6 +1476,12 @@
   </si>
   <si>
     <t>asdadasdsad</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 var.Fecha AS 'Date', var.Valor AS 'Value', med.Tag AS 'Measurement System Tag', vtv.Nombre AS 'Variable Name' FROM dbo_v2.var_variable_datos AS var INNER JOIN dbo_v2.med_sistema_medicion AS med ON var.idSistemaMedicion_fk = med.Id INNER JOIN dbo_v2.var_tipo_variable AS vtv ON vtv.Id = var.IdVariable_fk WHERE med.Tag = 'EMED-3138.12-105' AND vtv.Nombre = 'Temperatura (°C)' AND var.IdVariable_fk = 6 AND YEAR(var.Fecha) = 2022 ORDER BY var.Valor DESC</t>
+  </si>
+  <si>
+    <t>The user is trying to gather information about the max temperature of the specific measurement system with the tag EMED-3138.12-105 in 2022.</t>
   </si>
 </sst>
 </file>
@@ -2734,7 +2740,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -3260,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3880,7 +3886,17 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26">
+        <v>54</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3891,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
